--- a/session_finale/session_finale.xlsx
+++ b/session_finale/session_finale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC15D391-6353-479D-B970-BB07BA9CE6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FED3A5-D67B-49E7-BFB0-627D8E18D323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{362B427D-9B06-46E3-8CEB-A950A0F32B0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{362B427D-9B06-46E3-8CEB-A950A0F32B0A}"/>
   </bookViews>
   <sheets>
     <sheet name="exercice1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
   <si>
     <t>Viny, 34</t>
   </si>
@@ -79,13 +79,16 @@
   </si>
   <si>
     <t>Phase</t>
+  </si>
+  <si>
+    <t>Tity,31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +100,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -253,6 +262,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DBF927-EFBF-4E55-9B2D-F39ECDB68CF8}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,36 +614,157 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -643,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298DD1A2-0B7C-401B-8BDA-2DEE3C92F73C}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,32 +877,52 @@
       <c r="B7" s="9">
         <v>0</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
       <c r="F7" s="9">
         <v>0</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>2</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
       <c r="F9" s="9">
         <v>2</v>
       </c>
